--- a/수정사항.xlsx
+++ b/수정사항.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seoinjeong/Library/Mobile Documents/com~apple~CloudDocs/0. 프로젝트/ADMore/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299F5B19-9219-DA46-B209-6A9F97003582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967B2B8A-BAC6-554E-B5D0-85A904C6EB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="3900" windowWidth="24120" windowHeight="17380" xr2:uid="{812FD805-9A5A-E843-B914-C38D28068475}"/>
+    <workbookView xWindow="-24260" yWindow="3100" windowWidth="24120" windowHeight="17380" xr2:uid="{812FD805-9A5A-E843-B914-C38D28068475}"/>
   </bookViews>
   <sheets>
     <sheet name="나중에 수정할것" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
   <si>
     <t>페이지</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -281,6 +281,30 @@
   </si>
   <si>
     <t>원가에 대해서도 할인율, 원가 금액 표시해주기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품수정/등록 상태시 사이드메뉴 상품관리를 클릭시 상품목록으로 가지 않음(뒤로가기기능은 됨)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에디터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 수정시 보여지는 것과 저장후 보여지는 것이 다름.(글수정시 문제임)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품관리, 이용약관, 개인정보취급방침</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -888,17 +912,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51ACB9AF-9FC2-C748-AD7B-775CDB889580}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="79" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -959,6 +983,28 @@
       </c>
       <c r="D8" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/수정사항.xlsx
+++ b/수정사항.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seoinjeong/Library/Mobile Documents/com~apple~CloudDocs/0. 프로젝트/ADMore/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967B2B8A-BAC6-554E-B5D0-85A904C6EB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A95B487-EC5C-494E-AF6B-13BAA23A7AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24260" yWindow="3100" windowWidth="24120" windowHeight="17380" xr2:uid="{812FD805-9A5A-E843-B914-C38D28068475}"/>
+    <workbookView xWindow="1600" yWindow="1120" windowWidth="24120" windowHeight="17380" xr2:uid="{812FD805-9A5A-E843-B914-C38D28068475}"/>
   </bookViews>
   <sheets>
     <sheet name="나중에 수정할것" sheetId="1" r:id="rId1"/>
     <sheet name="주문,결제관리 버튼" sheetId="2" r:id="rId2"/>
+    <sheet name="상품문의경로" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
   <si>
     <t>페이지</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -305,6 +306,38 @@
   </si>
   <si>
     <t>상품관리, 이용약관, 개인정보취급방침</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품문의 경로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품상세페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객센터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>즐겨찾기한 서비스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 이미지, 리뷰수 오류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품이미지등 링크 오류</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -541,62 +574,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -912,10 +945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51ACB9AF-9FC2-C748-AD7B-775CDB889580}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1007,9 +1040,29 @@
         <v>61</v>
       </c>
     </row>
+    <row r="14" spans="1:5">
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1029,244 +1082,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="7"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="13" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="38">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="38">
-      <c r="A4" s="3"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="57">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="38">
-      <c r="A6" s="3"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="38">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="16" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="38">
-      <c r="A8" s="3"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="16" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="57">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="16" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="57">
-      <c r="A10" s="3"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="16" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="57">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="16" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="57">
-      <c r="A12" s="3"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="16" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="38">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="19"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" ht="38">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="18" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="13" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1284,5 +1337,46 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54BB980D-1D1F-BD4C-A4B6-12E35395DB9C}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/수정사항.xlsx
+++ b/수정사항.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seoinjeong/Library/Mobile Documents/com~apple~CloudDocs/0. 프로젝트/ADMore/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A95B487-EC5C-494E-AF6B-13BAA23A7AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6C17E9-3B44-774A-8FAD-3D623437A6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1600" yWindow="1120" windowWidth="24120" windowHeight="17380" xr2:uid="{812FD805-9A5A-E843-B914-C38D28068475}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="72">
   <si>
     <t>페이지</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -338,6 +338,14 @@
   </si>
   <si>
     <t>상품이미지등 링크 오류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 1:1문의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른쪽패널에 문의 경로 기능 추가시키기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -945,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51ACB9AF-9FC2-C748-AD7B-775CDB889580}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1057,6 +1065,14 @@
       </c>
       <c r="D16" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/수정사항.xlsx
+++ b/수정사항.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seoinjeong/Library/Mobile Documents/com~apple~CloudDocs/0. 프로젝트/ADMore/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6C17E9-3B44-774A-8FAD-3D623437A6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA60596-8040-8240-88AD-DC9ECE63977C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="1120" windowWidth="24120" windowHeight="17380" xr2:uid="{812FD805-9A5A-E843-B914-C38D28068475}"/>
+    <workbookView xWindow="-24540" yWindow="3360" windowWidth="24120" windowHeight="17380" xr2:uid="{812FD805-9A5A-E843-B914-C38D28068475}"/>
   </bookViews>
   <sheets>
     <sheet name="나중에 수정할것" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="74">
   <si>
     <t>페이지</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -346,6 +346,14 @@
   </si>
   <si>
     <t>오른쪽패널에 문의 경로 기능 추가시키기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크박스 디자인 수정하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원관리, 주문관리, 상품관리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -953,10 +961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51ACB9AF-9FC2-C748-AD7B-775CDB889580}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1067,12 +1075,23 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:5">
       <c r="B18" t="s">
         <v>70</v>
       </c>
       <c r="D18" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/수정사항.xlsx
+++ b/수정사항.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seoinjeong/Library/Mobile Documents/com~apple~CloudDocs/0. 프로젝트/ADMore/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA60596-8040-8240-88AD-DC9ECE63977C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08388927-3B03-8B4B-B18D-61BC04DB4FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24540" yWindow="3360" windowWidth="24120" windowHeight="17380" xr2:uid="{812FD805-9A5A-E843-B914-C38D28068475}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
   <si>
     <t>페이지</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -341,10 +341,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>관리자 1:1문의</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>오른쪽패널에 문의 경로 기능 추가시키기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -354,6 +350,18 @@
   </si>
   <si>
     <t>회원관리, 주문관리, 상품관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1문의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">답변완료시 관리자와 유저의 채팅내용 저장/ 삭제 문제와 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 다시 채팅을 시작했을 때 유저의 상태와 관리자의 상태</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -961,10 +969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51ACB9AF-9FC2-C748-AD7B-775CDB889580}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1075,23 +1083,39 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
-      <c r="B18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" t="s">
-        <v>71</v>
-      </c>
-    </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
         <v>56</v>
       </c>
       <c r="D20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" t="s">
         <v>72</v>
       </c>
-      <c r="E20" t="s">
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" t="s">
         <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="D24" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
